--- a/medicine/Enfance/Georges_et_le_Code_secret/Georges_et_le_Code_secret.xlsx
+++ b/medicine/Enfance/Georges_et_le_Code_secret/Georges_et_le_Code_secret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Georges et le Code secret (titre original : George and the Unbreakable Code) est un roman britannique de Stephen Hawking et Lucy Hawking paru en 2014. Il est le quatrième tome de la série Georges.
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Georges et Annie s'ennuient sur la terre ferme, ils rêvent d'aventures... Mais quand des choses étranges se produisent, comme des billets qui sortent des distributeurs, etc., ils comprennent : toutes les machines électroniques sont piratées ! Ils mènent alors l'enquête...
  Portail de la littérature britannique   Portail de la littérature d’enfance et de jeunesse   Portail de la cosmologie   Portail des années 2010                  </t>
